--- a/Documentation/Journal_de_bord_Festivel.xlsx
+++ b/Documentation/Journal_de_bord_Festivel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke.CORNAZ\Documents\GitHub\Festivel\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Validation du MCD et du MLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clôture du Sprint 1 </t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Liasion à la base de donnée</t>
   </si>
 </sst>
 </file>
@@ -380,56 +389,56 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -715,7 +724,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,15 +740,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1"/>
@@ -769,295 +778,307 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>44312</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>44319</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>44326</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="10">
+        <v>44326</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="20"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="10">
+        <v>44334</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="20"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="21"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="21"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="21"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="21"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="21"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="21"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="21"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="21"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="21"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="21"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="21"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="21"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="22"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" s="1"/>

--- a/Documentation/Journal_de_bord_Festivel.xlsx
+++ b/Documentation/Journal_de_bord_Festivel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke.CORNAZ\Documents\GitHub\Festivel\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukec\Documents\GitHub\Festivel\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F540CD98-0A4C-4364-B24C-56B083E414D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="8565" yWindow="690" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -74,13 +69,64 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Liasion à la base de donnée</t>
+    <t>Footer fonctionnel</t>
+  </si>
+  <si>
+    <t>Login fonctionnel</t>
+  </si>
+  <si>
+    <t>Register fonctionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clôture du Sprint 2 </t>
+  </si>
+  <si>
+    <t>Billeterie fonctionnel</t>
+  </si>
+  <si>
+    <t>Consultation du programme du festival fonctionnel</t>
+  </si>
+  <si>
+    <t>Déconnexion fonctionnel</t>
+  </si>
+  <si>
+    <t>Base de donnée fonctionnel</t>
+  </si>
+  <si>
+    <t>Description del'artiste fonctionnel</t>
+  </si>
+  <si>
+    <t>Clôture du Sprint 3</t>
+  </si>
+  <si>
+    <t>Suppression d'un concert seulment en admin fonctionnel</t>
+  </si>
+  <si>
+    <t>Ajout d'un concert seulment en admin fonctionnel</t>
+  </si>
+  <si>
+    <t>Hashage du mot de passe fonctionnel</t>
+  </si>
+  <si>
+    <t>Vérification, lors de la connexion, du statut de l'utilisateur, fonctionnel</t>
+  </si>
+  <si>
+    <t>Gestion des quantités du panier fonctionnel</t>
+  </si>
+  <si>
+    <t>Test complet du site fait</t>
+  </si>
+  <si>
+    <t>Clôture du Sprint 4</t>
+  </si>
+  <si>
+    <t>https://github.com/Axwells/Festivel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -158,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -254,12 +300,12 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -267,10 +313,27 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -280,10 +343,27 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -293,71 +373,8 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -372,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,65 +397,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -720,11 +719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,15 +739,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1"/>
@@ -757,19 +756,19 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1"/>
@@ -778,307 +777,445 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>44312</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>44319</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>44326</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>44326</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>44334</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="7">
+        <v>44327</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="20"/>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="20"/>
+      <c r="A8" s="7">
+        <v>44334</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="20"/>
+      <c r="A9" s="7">
+        <v>44334</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="7">
+        <v>44334</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="7">
+        <v>44340</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="20"/>
+      <c r="A12" s="7">
+        <v>44341</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="20"/>
+      <c r="A13" s="7">
+        <v>44341</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="20"/>
+      <c r="A14" s="7">
+        <v>44347</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="7">
+        <v>44348</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="20"/>
+      <c r="A16" s="7">
+        <v>44354</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="20"/>
+      <c r="A17" s="7">
+        <v>44355</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="20"/>
+      <c r="A18" s="7">
+        <v>44355</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="7">
+        <v>44361</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="7">
+        <v>44361</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="7">
+        <v>44361</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="20"/>
+      <c r="A22" s="7">
+        <v>44362</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="21"/>
+      <c r="A23" s="16">
+        <v>44362</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" s="1"/>
